--- a/link.xlsx
+++ b/link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\my works\IML\Project\Phishing-Link-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465860CD-E0B2-4220-A0E2-769107F3C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1472CEDB-5D34-4F24-97BE-A841B8B7679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -625,8 +625,9 @@
     <hyperlink ref="A11" r:id="rId2" xr:uid="{C993AE82-5A68-4F81-A4F2-959A6712C3E9}"/>
     <hyperlink ref="A8" r:id="rId3" xr:uid="{9AB5A8F8-F9DC-4253-963B-537FF9B48623}"/>
     <hyperlink ref="A10" r:id="rId4" xr:uid="{2CE04FBE-BF81-4D1D-8F29-8C14A89093CF}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{281D4634-FC03-4BE7-8B20-4F1C7FA4D6C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>